--- a/examples/puerto_rico_stoch/data/data_X.xlsx
+++ b/examples/puerto_rico_stoch/data/data_X.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="217">
   <si>
     <t>connection</t>
   </si>
@@ -6565,7 +6565,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6659,15 +6659,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2041</v>
-      </c>
-      <c r="B8" s="3">
-        <v>65.41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>88</v>
-      </c>
+      <c r="B8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/examples/puerto_rico_stoch/data/data_X.xlsx
+++ b/examples/puerto_rico_stoch/data/data_X.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="217">
   <si>
     <t>connection</t>
   </si>
@@ -6565,7 +6565,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6648,15 +6648,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2036</v>
-      </c>
-      <c r="B7" s="3">
-        <v>65.47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>

--- a/examples/puerto_rico_stoch/data/data_X.xlsx
+++ b/examples/puerto_rico_stoch/data/data_X.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="221">
   <si>
     <t>connection</t>
   </si>
@@ -543,9 +543,6 @@
     <t>https://www.nrel.gov/docs/fy11osti/48595.pdf, "NREL-SEAC" for Capacity factors and lifetime</t>
   </si>
   <si>
-    <t>https://www.eia.gov/outlooks/aeo/assumptions/pdf/table_8.2.pdf, 2018</t>
-  </si>
-  <si>
     <t>NREL - Energy Snapshot Puerto Rico, https://www.nrel.gov/docs/fy15osti/62708.pdf</t>
   </si>
   <si>
@@ -685,6 +682,21 @@
   </si>
   <si>
     <t>MSW_LF_TAXED</t>
+  </si>
+  <si>
+    <t>EC_COAL</t>
+  </si>
+  <si>
+    <t>EC_DSL_CC</t>
+  </si>
+  <si>
+    <t>ATB</t>
+  </si>
+  <si>
+    <t>EC_OIL_CC</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/outlooks/aeo/assumptions/pdf/table_8.2.pdf, 2019</t>
   </si>
 </sst>
 </file>
@@ -759,7 +771,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -800,12 +812,20 @@
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1089,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F24"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,7 +1297,7 @@
         <v>143</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1285,7 +1305,7 @@
         <v>144</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1293,7 +1313,7 @@
         <v>145</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1301,15 +1321,15 @@
         <v>146</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>173</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1317,7 +1337,7 @@
         <v>147</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1325,7 +1345,15 @@
         <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1351,7 +1379,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="F16" sqref="F16:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,7 +1412,7 @@
         <v>129</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1418,7 +1446,7 @@
         <v>107</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>106</v>
@@ -1444,7 +1472,7 @@
         <v>108</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>106</v>
@@ -1470,7 +1498,7 @@
         <v>109</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>106</v>
@@ -1496,7 +1524,7 @@
         <v>110</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>106</v>
@@ -1522,7 +1550,7 @@
         <v>111</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>106</v>
@@ -1548,7 +1576,7 @@
         <v>112</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>106</v>
@@ -1600,7 +1628,7 @@
         <v>114</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>106</v>
@@ -1626,7 +1654,7 @@
         <v>115</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>106</v>
@@ -1753,21 +1781,21 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="6" t="s">
         <v>131</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -1779,21 +1807,21 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="23" t="s">
+      <c r="D17" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="E17" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>131</v>
       </c>
       <c r="G17" s="23" t="s">
@@ -1805,25 +1833,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="23" t="s">
         <v>130</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>131</v>
       </c>
       <c r="H18" s="23" t="s">
         <v>130</v>
@@ -1831,16 +1859,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>97</v>
+        <v>213</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>106</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>131</v>
@@ -1849,105 +1877,105 @@
         <v>131</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H19" s="23" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="A20" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="H20" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="F21" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="H20" s="6" t="s">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="23" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="F22" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="G22" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="23" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>103</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>131</v>
@@ -1956,15 +1984,15 @@
         <v>130</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>103</v>
@@ -1987,16 +2015,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>97</v>
+        <v>213</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>103</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>131</v>
@@ -2005,23 +2033,97 @@
         <v>131</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H26" s="6"/>
+      <c r="A26" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H27" s="6"/>
+      <c r="A27" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H28" s="6"/>
+      <c r="A28" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:H25">
+  <conditionalFormatting sqref="D3:H15 D19:H28">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:H18">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -2033,10 +2135,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2127,7 +2229,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="6">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>142</v>
@@ -2259,7 +2361,7 @@
         <v>137</v>
       </c>
       <c r="D9" s="9">
-        <v>92</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>141</v>
@@ -2278,21 +2380,21 @@
         <v>114</v>
       </c>
       <c r="B10" s="9">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9">
-        <v>18000</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>143</v>
-      </c>
+      <c r="D10" s="6">
+        <v>19</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="6">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>142</v>
@@ -2317,7 +2419,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="6">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>142</v>
@@ -2331,21 +2433,21 @@
         <v>22</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9">
-        <v>9271</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>197</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="D12" s="6">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="6">
         <v>30</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2353,24 +2455,24 @@
         <v>117</v>
       </c>
       <c r="B13" s="6">
-        <v>33.4</v>
+        <v>31</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9">
-        <v>9271</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>197</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="D13" s="6">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2382,10 +2484,10 @@
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
@@ -2393,7 +2495,7 @@
         <v>15</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2404,269 +2506,344 @@
         <v>56</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23">
-        <v>13500</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>198</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="D15" s="23">
+        <v>25.3</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="24">
         <v>45</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="25">
-        <v>87</v>
+        <v>216</v>
+      </c>
+      <c r="B16" s="23">
+        <v>85</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" s="23">
-        <v>62.02</v>
+        <v>197</v>
+      </c>
+      <c r="D16" s="26">
+        <v>38.799999999999997</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="B17" s="23">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="D17" s="23">
-        <v>42.47</v>
+        <v>197</v>
+      </c>
+      <c r="D17" s="26">
+        <v>51.7</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
-      <c r="H17" s="24">
+      <c r="H17" s="23">
         <v>55</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="B18" s="23">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23">
-        <v>9271</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>197</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="D18" s="26">
+        <v>51.7</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="23">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="25">
+        <v>87</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="23">
+        <v>62.02</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23">
+        <v>55</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="23">
+        <v>30</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="23">
+        <v>42.47</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24">
+        <v>55</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="23">
+        <v>22</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="23">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23">
+        <v>30</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="23">
-        <v>33.4</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23">
-        <v>9271</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="H19" s="23">
-        <v>25</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="6">
-        <v>50</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="9">
-        <v>90</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9">
-        <v>15</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="6">
-        <v>56</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="6">
-        <v>13500</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="H21" s="9">
-        <v>45</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="B22" s="23">
+        <v>31</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="23">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E22" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="B22" s="10">
-        <v>87</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D22" s="9">
-        <v>54.17</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="6">
-        <v>55</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>198</v>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23">
+        <v>30</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B23" s="6">
-        <v>30</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>198</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C23" s="6"/>
       <c r="D23" s="9">
-        <v>37.6</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F23" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B24" s="6">
-        <v>22</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="6">
-        <v>9271</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>197</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="6">
+        <v>25.3</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="10">
+        <v>87</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="9">
+        <v>54.17</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="6">
+        <v>55</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="6">
+        <v>30</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" s="9">
+        <v>37.6</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9">
+        <v>55</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="6">
+        <v>22</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="6">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9">
+        <v>30</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B25" s="6">
-        <v>33.4</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="6">
-        <v>9271</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="H25" s="9">
-        <v>25</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>198</v>
+      <c r="B28" s="6">
+        <v>31</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D28" s="6">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9">
+        <v>30</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2677,10 +2854,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:G25"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2691,6 +2868,7 @@
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2858,22 +3036,22 @@
         <v>113</v>
       </c>
       <c r="B9" s="6">
-        <v>3885</v>
+        <v>3935</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D9" s="13">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F9" s="9">
         <v>0</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2921,16 +3099,16 @@
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F12" s="9">
         <v>0</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2940,16 +3118,16 @@
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F13" s="28">
         <v>0</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2957,22 +3135,22 @@
         <v>118</v>
       </c>
       <c r="B14" s="24">
-        <v>1950</v>
+        <v>1284</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D14" s="24">
-        <v>36.32</v>
+        <v>32.1</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F14" s="24">
-        <v>2.0169999999999999</v>
+        <v>0</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2980,253 +3158,324 @@
         <v>119</v>
       </c>
       <c r="B15" s="24">
-        <v>3760</v>
+        <v>3749</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D15" s="24">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F15" s="24">
-        <v>1.389</v>
+        <v>1.67</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" s="24">
+        <v>3644</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" s="24">
+        <v>33</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="24">
+        <v>1.39</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" s="24">
+        <v>952</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="24">
+        <v>1</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" s="24">
+        <v>11.33</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="24">
+        <v>952</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="24">
+        <v>1</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" s="24">
+        <v>11.33</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B19" s="27">
         <v>612.6</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="27">
-        <v>10</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="F16" s="24">
+      <c r="C19" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="27">
+        <v>11</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" s="24">
         <v>0.83299999999999996</v>
       </c>
-      <c r="G16" s="23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="G19" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B20" s="24">
         <v>188.3</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="24">
+      <c r="C20" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="24">
         <v>12</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" s="24">
+      <c r="E20" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" s="24">
         <v>1.944</v>
       </c>
-      <c r="G17" s="23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="G20" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="24">
-        <v>951</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="D18" s="24">
-        <v>8</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="F18" s="24">
+      <c r="B21" s="24">
+        <v>1060</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="24">
+        <v>13</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F21" s="24">
         <v>0</v>
       </c>
-      <c r="G18" s="23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="G21" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="24">
-        <v>1628</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="D19" s="24">
-        <v>50</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="F19" s="24">
+      <c r="B22" s="24">
+        <v>1494</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="24">
+        <v>42</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="24">
         <v>0</v>
       </c>
-      <c r="G19" s="23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="G22" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="7">
-        <v>1950</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D20" s="7">
-        <v>36.32</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F20" s="28">
-        <v>2.0169999999999999</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="B23" s="7">
+        <v>1284</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="7">
+        <v>32.1</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" s="28">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="7">
-        <v>3760</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" s="7">
-        <v>110</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F21" s="28">
-        <v>1.389</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B22" s="7">
+      <c r="B24" s="7">
+        <v>3749</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="7">
+        <v>112</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24" s="28">
+        <v>1.67</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="7">
         <v>860.9</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="7">
-        <v>10</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F22" s="28">
+      <c r="C25" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="7">
+        <v>11</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" s="28">
         <v>0.83299999999999996</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="G25" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B26" s="7">
         <v>305.2</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="C26" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="7">
         <v>12</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F23" s="28">
+      <c r="E26" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" s="28">
         <v>1.944</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="G26" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="7">
-        <v>951</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D24" s="7">
-        <v>8</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F24" s="7">
+      <c r="B27" s="7">
+        <v>1060</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="7">
+        <v>13</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27" s="7">
         <v>0</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="G27" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B25" s="7">
-        <v>1628</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D25" s="7">
-        <v>50</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F25" s="7">
+      <c r="B28" s="7">
+        <v>1494</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D28" s="7">
+        <v>42</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="7">
         <v>0</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>198</v>
-      </c>
+      <c r="G28" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F29" s="7"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3236,10 +3485,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3434,12 +3683,12 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="23">
-        <v>1</v>
-      </c>
-      <c r="C16" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>137</v>
       </c>
       <c r="D16" s="26"/>
@@ -3449,10 +3698,14 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+        <v>217</v>
+      </c>
+      <c r="B17" s="26">
+        <v>0.93</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>137</v>
+      </c>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
@@ -3460,76 +3713,117 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
+        <v>219</v>
+      </c>
+      <c r="B18" s="26">
+        <v>0.93</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>137</v>
+      </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
-      <c r="F18" s="26">
-        <v>738</v>
-      </c>
+      <c r="F18" s="26"/>
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
+        <v>120</v>
+      </c>
+      <c r="B19" s="23">
+        <v>1</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>137</v>
+      </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
-      <c r="F19" s="26">
-        <v>75.239999999999995</v>
-      </c>
+      <c r="F19" s="26"/>
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>132</v>
-      </c>
+      <c r="A20" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21">
-        <v>290</v>
-      </c>
-      <c r="E21" t="s">
-        <v>144</v>
-      </c>
+      <c r="A21" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26">
+        <v>205</v>
+      </c>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>137</v>
-      </c>
+      <c r="A22" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26">
+        <v>20.9</v>
+      </c>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24">
-        <v>738</v>
+        <v>133</v>
+      </c>
+      <c r="D24">
+        <v>290</v>
+      </c>
+      <c r="E24" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F25" s="3">
-        <v>75.239999999999995</v>
+      <c r="F28" s="3">
+        <v>20.9</v>
       </c>
     </row>
   </sheetData>
@@ -3543,7 +3837,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3991,7 +4285,7 @@
         <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>35</v>
@@ -4022,7 +4316,7 @@
         <v>84</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -4039,7 +4333,7 @@
         <v>84</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4056,7 +4350,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4073,7 +4367,7 @@
         <v>84</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4090,7 +4384,7 @@
         <v>84</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4107,7 +4401,7 @@
         <v>84</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4124,7 +4418,7 @@
         <v>84</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4141,7 +4435,7 @@
         <v>84</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4158,7 +4452,7 @@
         <v>84</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D11">
         <v>0.96259337132800005</v>
@@ -4430,7 +4724,7 @@
         <v>85</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4447,7 +4741,7 @@
         <v>85</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4464,7 +4758,7 @@
         <v>85</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4481,7 +4775,7 @@
         <v>85</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4498,7 +4792,7 @@
         <v>85</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4515,7 +4809,7 @@
         <v>85</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4532,7 +4826,7 @@
         <v>85</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4549,7 +4843,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D34">
         <v>6.8030477198100002E-3</v>
@@ -4566,7 +4860,7 @@
         <v>85</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D35">
         <v>0.62784163046800001</v>
@@ -4838,7 +5132,7 @@
         <v>84</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -4855,7 +5149,7 @@
         <v>84</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D52">
         <v>0.62471818120800005</v>
@@ -4872,7 +5166,7 @@
         <v>84</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D53">
         <v>0.47888239847899999</v>
@@ -4889,7 +5183,7 @@
         <v>84</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D54">
         <v>0.54757875157699998</v>
@@ -4906,7 +5200,7 @@
         <v>84</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D55">
         <v>0.54985832453000005</v>
@@ -4923,7 +5217,7 @@
         <v>84</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D56">
         <v>0.22189131724700001</v>
@@ -4940,7 +5234,7 @@
         <v>84</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D57">
         <v>0.33405325538000002</v>
@@ -4957,7 +5251,7 @@
         <v>84</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D58">
         <v>0.45380709599500002</v>
@@ -4974,7 +5268,7 @@
         <v>84</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D59">
         <v>0.86262626114300001</v>
@@ -5246,7 +5540,7 @@
         <v>85</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -5263,7 +5557,7 @@
         <v>85</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D76">
         <v>0.38224050632099998</v>
@@ -5280,7 +5574,7 @@
         <v>85</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D77">
         <v>0.52952256720400004</v>
@@ -5297,7 +5591,7 @@
         <v>85</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D78">
         <v>0.59106484547500004</v>
@@ -5314,7 +5608,7 @@
         <v>85</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D79">
         <v>0.54912905000599999</v>
@@ -5331,7 +5625,7 @@
         <v>85</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D80">
         <v>0.53918644940500005</v>
@@ -5348,7 +5642,7 @@
         <v>85</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D81">
         <v>0.468058436849</v>
@@ -5365,7 +5659,7 @@
         <v>85</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D82">
         <v>0.480675317815</v>
@@ -5382,7 +5676,7 @@
         <v>85</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D83">
         <v>0.68255839241500005</v>
@@ -5669,10 +5963,10 @@
         <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5683,7 +5977,7 @@
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5732,10 +6026,10 @@
         <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5746,12 +6040,12 @@
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3">
         <v>3.9199999999999999E-2</v>
@@ -5762,7 +6056,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4">
         <v>3.7499999999999999E-2</v>
@@ -5773,7 +6067,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5">
         <v>3.6400000000000002E-2</v>
@@ -5784,7 +6078,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6">
         <v>3.5700000000000003E-2</v>
@@ -5795,7 +6089,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7">
         <v>3.5700000000000003E-2</v>
@@ -5806,7 +6100,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8">
         <v>3.6900000000000002E-2</v>
@@ -5817,7 +6111,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9">
         <v>3.8600000000000002E-2</v>
@@ -5828,7 +6122,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10">
         <v>3.85E-2</v>
@@ -5839,7 +6133,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11">
         <v>4.0500000000000001E-2</v>
@@ -6024,7 +6318,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H3" activeCellId="1" sqref="H5:H6 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6117,7 +6411,7 @@
         <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D3">
         <v>0.7</v>
@@ -6131,25 +6425,25 @@
       <c r="G3" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="30">
         <v>1000000</v>
       </c>
       <c r="I3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J3">
         <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" t="s">
         <v>199</v>
-      </c>
-      <c r="B4" t="s">
-        <v>200</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
@@ -6166,24 +6460,24 @@
         <v>688.39634941329859</v>
       </c>
       <c r="I4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J4">
         <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
         <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -6197,25 +6491,25 @@
       <c r="G5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="30">
         <v>1000000</v>
       </c>
       <c r="I5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J5">
         <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" t="s">
         <v>205</v>
-      </c>
-      <c r="B6" t="s">
-        <v>206</v>
       </c>
       <c r="C6" t="s">
         <v>105</v>
@@ -6224,25 +6518,25 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>186</v>
-      </c>
-      <c r="H6">
+        <v>185</v>
+      </c>
+      <c r="H6" s="30">
         <v>1000000</v>
       </c>
       <c r="I6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J6">
         <v>30</v>
       </c>
       <c r="K6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6253,7 +6547,7 @@
         <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -6262,47 +6556,47 @@
         <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B8" t="s">
         <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D8">
         <v>0.7</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H8">
         <v>4531.3620000000001</v>
       </c>
       <c r="I8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J8">
         <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B9" t="s">
         <v>103</v>
@@ -6314,140 +6608,140 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H9">
         <v>7746.9369999999999</v>
       </c>
       <c r="I9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J9">
         <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
         <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="J10">
         <v>30</v>
       </c>
       <c r="K10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B11" t="s">
         <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="J11">
         <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B12" t="s">
         <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="J12">
         <v>30</v>
       </c>
       <c r="K12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B13" t="s">
         <v>126</v>
       </c>
       <c r="C13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="J13">
         <v>30</v>
       </c>
       <c r="K13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B14" t="s">
         <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="J14">
         <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -6509,12 +6803,12 @@
         <v>2015</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B4">
         <v>3068</v>
@@ -6523,12 +6817,12 @@
         <v>2015</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5">
         <v>2853</v>
@@ -6537,12 +6831,12 @@
         <v>2015</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6">
         <v>2853</v>
@@ -6551,7 +6845,7 @@
         <v>2015</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -6565,12 +6859,13 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -6648,7 +6943,15 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
+      <c r="A7">
+        <v>2036</v>
+      </c>
+      <c r="B7" s="3">
+        <v>65.47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
@@ -6707,7 +7010,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6759,7 +7062,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -6791,13 +7094,13 @@
         <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K2" t="s">
         <v>77</v>
       </c>
       <c r="L2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -6811,7 +7114,7 @@
         <v>92</v>
       </c>
       <c r="D3">
-        <v>1.65</v>
+        <v>2.66</v>
       </c>
       <c r="E3" t="s">
         <v>93</v>
@@ -6824,7 +7127,7 @@
         <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -6832,13 +7135,13 @@
         <v>99</v>
       </c>
       <c r="B4">
-        <v>4.0282227613315982</v>
+        <v>4.03</v>
       </c>
       <c r="C4" t="s">
         <v>90</v>
       </c>
       <c r="D4">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="E4" t="s">
         <v>93</v>
@@ -6853,7 +7156,7 @@
         <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -6861,13 +7164,13 @@
         <v>125</v>
       </c>
       <c r="B5">
-        <v>11.456075969803004</v>
+        <v>11.46</v>
       </c>
       <c r="C5" t="s">
         <v>90</v>
       </c>
       <c r="D5">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="E5" t="s">
         <v>93</v>
@@ -6882,7 +7185,7 @@
         <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -6896,7 +7199,7 @@
         <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -6916,7 +7219,7 @@
         <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -6924,13 +7227,13 @@
         <v>126</v>
       </c>
       <c r="B8">
-        <v>7.1933632529058906</v>
+        <v>7.19</v>
       </c>
       <c r="C8" t="s">
         <v>90</v>
       </c>
       <c r="D8">
-        <v>1.6</v>
+        <v>3.05</v>
       </c>
       <c r="E8" t="s">
         <v>93</v>
@@ -6945,7 +7248,7 @@
         <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -6953,13 +7256,13 @@
         <v>95</v>
       </c>
       <c r="B9">
-        <v>7.6232741423376043</v>
+        <v>7.62</v>
       </c>
       <c r="C9" t="s">
         <v>90</v>
       </c>
       <c r="D9">
-        <v>1.4</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="E9" t="s">
         <v>93</v>
@@ -6974,7 +7277,7 @@
         <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -6988,7 +7291,7 @@
         <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -7002,7 +7305,7 @@
         <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/examples/puerto_rico_stoch/data/data_X.xlsx
+++ b/examples/puerto_rico_stoch/data/data_X.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="221">
   <si>
     <t>connection</t>
   </si>
@@ -6859,7 +6859,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6954,7 +6954,15 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
+      <c r="A8">
+        <v>2041</v>
+      </c>
+      <c r="B8" s="3">
+        <v>65.41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
